--- a/hw4/pizza/generated_spreadsheet.xlsx
+++ b/hw4/pizza/generated_spreadsheet.xlsx
@@ -1345,22 +1345,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="D14">
-        <v>102</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="D15">
-        <v>102</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16">
-        <v>102</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17">
-        <v>102</v>
+        <v>99.25</v>
       </c>
     </row>
   </sheetData>
@@ -1841,22 +1841,22 @@
     </row>
     <row r="15" spans="1:11">
       <c r="D15">
-        <v>105.84914724902</v>
+        <v>104.364232524118</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16">
-        <v>105.84914724902</v>
+        <v>104.364232524118</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17">
-        <v>105.84914724902</v>
+        <v>104.364232524118</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18">
-        <v>105.84914724902</v>
+        <v>104.364232524118</v>
       </c>
     </row>
   </sheetData>
@@ -2470,13 +2470,13 @@
         <v>108</v>
       </c>
       <c r="C3">
-        <v>118.7874424663837</v>
+        <v>118.5388250109192</v>
       </c>
       <c r="D3">
-        <v>-2.142684324790204</v>
+        <v>-2.16754607033665</v>
       </c>
       <c r="E3">
-        <v>0.9519889354775966</v>
+        <v>0.9521796238547565</v>
       </c>
       <c r="F3">
         <v>113.9465858499168</v>
@@ -2511,34 +2511,34 @@
         <v>116</v>
       </c>
       <c r="C4">
-        <v>116.4128149591767</v>
+        <v>115.9783943403233</v>
       </c>
       <c r="D4">
-        <v>-2.165878643031883</v>
+        <v>-2.206834530362574</v>
       </c>
       <c r="E4">
-        <v>1.031739188615557</v>
+        <v>1.032112430639977</v>
       </c>
       <c r="F4">
-        <v>120.8042845034315</v>
+        <v>120.521053094399</v>
       </c>
       <c r="G4">
-        <v>4.804284503431489</v>
+        <v>4.521053094399022</v>
       </c>
       <c r="H4">
-        <v>4.804284503431489</v>
+        <v>4.521053094399022</v>
       </c>
       <c r="I4">
-        <v>29.22151643017125</v>
+        <v>27.90090217640276</v>
       </c>
       <c r="J4">
-        <v>5.375435176674138</v>
+        <v>5.233819472157904</v>
       </c>
       <c r="K4">
-        <v>4.141624571923698</v>
+        <v>3.897459564137088</v>
       </c>
       <c r="L4">
-        <v>4.823861290552953</v>
+        <v>4.701778786659649</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -2552,37 +2552,37 @@
         <v>118</v>
       </c>
       <c r="C5">
-        <v>114.7057857949201</v>
+        <v>114.6402727573129</v>
       </c>
       <c r="D5">
-        <v>-2.11999369515435</v>
+        <v>-2.119963235627355</v>
       </c>
       <c r="E5">
-        <v>0.9633209332445588</v>
+        <v>0.9633797210446682</v>
       </c>
       <c r="F5">
-        <v>109.2262978017695</v>
+        <v>108.7718119528996</v>
       </c>
       <c r="G5">
-        <v>-8.773702198230495</v>
+        <v>-9.22818804710036</v>
       </c>
       <c r="H5">
-        <v>8.773702198230495</v>
+        <v>9.22818804710036</v>
       </c>
       <c r="I5">
-        <v>45.14029437452572</v>
+        <v>46.98708632848383</v>
       </c>
       <c r="J5">
-        <v>6.508190850526257</v>
+        <v>6.56527566380539</v>
       </c>
       <c r="K5">
-        <v>7.435340845958047</v>
+        <v>7.820498345000305</v>
       </c>
       <c r="L5">
-        <v>5.694354475687985</v>
+        <v>5.741351972773201</v>
       </c>
       <c r="M5">
-        <v>0.3037968923357411</v>
+        <v>0.1887888583336397</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2593,37 +2593,37 @@
         <v>124</v>
       </c>
       <c r="C6">
-        <v>113.1019441230902</v>
+        <v>113.4552765956967</v>
       </c>
       <c r="D6">
-        <v>-2.068378492821912</v>
+        <v>-2.026466528226242</v>
       </c>
       <c r="E6">
-        <v>1.017625678562114</v>
+        <v>1.017284241651094</v>
       </c>
       <c r="F6">
-        <v>113.585313023338</v>
+        <v>113.5192491000836</v>
       </c>
       <c r="G6">
-        <v>-10.41468697666203</v>
+        <v>-10.48075089991642</v>
       </c>
       <c r="H6">
-        <v>10.41468697666203</v>
+        <v>10.48075089991642</v>
       </c>
       <c r="I6">
-        <v>60.97164698635768</v>
+        <v>62.70184960288756</v>
       </c>
       <c r="J6">
-        <v>7.484814882060199</v>
+        <v>7.544144472833146</v>
       </c>
       <c r="K6">
-        <v>8.398941110211311</v>
+        <v>8.452218467674529</v>
       </c>
       <c r="L6">
-        <v>6.370501134318816</v>
+        <v>6.419068596498533</v>
       </c>
       <c r="M6">
-        <v>-1.127284903433953</v>
+        <v>-1.224963285894029</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2634,37 +2634,37 @@
         <v>96</v>
       </c>
       <c r="C7">
-        <v>110.523962756482</v>
+        <v>110.474135341901</v>
       </c>
       <c r="D7">
-        <v>-2.119338780200533</v>
+        <v>-2.121934000783193</v>
       </c>
       <c r="E7">
-        <v>0.9436490339581243</v>
+        <v>0.9438598297173457</v>
       </c>
       <c r="F7">
-        <v>105.7027259466409</v>
+        <v>106.1002424566271</v>
       </c>
       <c r="G7">
-        <v>9.702725946640925</v>
+        <v>10.10024245662714</v>
       </c>
       <c r="H7">
-        <v>9.702725946640925</v>
+        <v>10.10024245662714</v>
       </c>
       <c r="I7">
-        <v>67.60589574820995</v>
+        <v>70.56445921884075</v>
       </c>
       <c r="J7">
-        <v>7.928397094976344</v>
+        <v>8.055364069591946</v>
       </c>
       <c r="K7">
-        <v>10.10700619441763</v>
+        <v>10.52108589231994</v>
       </c>
       <c r="L7">
-        <v>7.117802146338579</v>
+        <v>7.239472055662816</v>
       </c>
       <c r="M7">
-        <v>0.1595791822660284</v>
+        <v>0.1066298737717619</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2675,37 +2675,37 @@
         <v>119</v>
       </c>
       <c r="C8">
-        <v>108.7513541041803</v>
+        <v>108.9772797052805</v>
       </c>
       <c r="D8">
-        <v>-2.084665767410656</v>
+        <v>-2.059426164366925</v>
       </c>
       <c r="E8">
-        <v>1.037989194614745</v>
+        <v>1.038098260875868</v>
       </c>
       <c r="F8">
-        <v>111.8452987834632</v>
+        <v>111.8316538913732</v>
       </c>
       <c r="G8">
-        <v>-7.154701216536765</v>
+        <v>-7.168346108626807</v>
       </c>
       <c r="H8">
-        <v>7.154701216536765</v>
+        <v>7.168346108626807</v>
       </c>
       <c r="I8">
-        <v>64.86987137316039</v>
+        <v>67.36791367121147</v>
       </c>
       <c r="J8">
-        <v>7.799447781903081</v>
+        <v>7.907527742764422</v>
       </c>
       <c r="K8">
-        <v>6.012353963476273</v>
+        <v>6.023820259350257</v>
       </c>
       <c r="L8">
-        <v>6.933560782528194</v>
+        <v>7.036863422944056</v>
       </c>
       <c r="M8">
-        <v>-0.7551168052057958</v>
+        <v>-0.7978983899833784</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2716,37 +2716,37 @@
         <v>96</v>
       </c>
       <c r="C9">
-        <v>106.3161170203167</v>
+        <v>106.2636729940974</v>
       </c>
       <c r="D9">
-        <v>-2.119722899055945</v>
+        <v>-2.12484421904854</v>
       </c>
       <c r="E9">
-        <v>0.9572855914292411</v>
+        <v>0.9573830643635187</v>
       </c>
       <c r="F9">
-        <v>102.7542537546834</v>
+        <v>103.00249191894</v>
       </c>
       <c r="G9">
-        <v>6.754253754683404</v>
+        <v>7.002491918939967</v>
       </c>
       <c r="H9">
-        <v>6.754253754683404</v>
+        <v>7.002491918939967</v>
       </c>
       <c r="I9">
-        <v>62.11988171737389</v>
+        <v>64.74891072886977</v>
       </c>
       <c r="J9">
-        <v>7.650134349443127</v>
+        <v>7.7782369107895</v>
       </c>
       <c r="K9">
-        <v>7.035680994461879</v>
+        <v>7.294262415562465</v>
       </c>
       <c r="L9">
-        <v>6.948149384233006</v>
+        <v>7.073634707603829</v>
       </c>
       <c r="M9">
-        <v>0.1130384936711951</v>
+        <v>0.08910608820334663</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2757,37 +2757,37 @@
         <v>102</v>
       </c>
       <c r="C10">
-        <v>103.9982404014631</v>
+        <v>103.7903607298328</v>
       </c>
       <c r="D10">
-        <v>-2.139538271035709</v>
+        <v>-2.159691023570148</v>
       </c>
       <c r="E10">
-        <v>1.013941693195617</v>
+        <v>1.01383083963906</v>
       </c>
       <c r="F10">
-        <v>106.0329262713735</v>
+        <v>105.9387894568587</v>
       </c>
       <c r="G10">
-        <v>4.032926271373512</v>
+        <v>3.938789456858686</v>
       </c>
       <c r="H10">
-        <v>4.032926271373512</v>
+        <v>3.938789456858686</v>
       </c>
       <c r="I10">
-        <v>56.38795829149399</v>
+        <v>58.59455468594369</v>
       </c>
       <c r="J10">
-        <v>7.197983339684425</v>
+        <v>7.298305979048148</v>
       </c>
       <c r="K10">
-        <v>3.953849285660306</v>
+        <v>3.861558291037928</v>
       </c>
       <c r="L10">
-        <v>6.573861871911419</v>
+        <v>6.67212515553309</v>
       </c>
       <c r="M10">
-        <v>0.6804247389146577</v>
+        <v>0.6346510730565609</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2798,37 +2798,37 @@
         <v>112</v>
       </c>
       <c r="C11">
-        <v>102.7001767445528</v>
+        <v>103.1634612926596</v>
       </c>
       <c r="D11">
-        <v>-2.055390809623173</v>
+        <v>-2.006411864930449</v>
       </c>
       <c r="E11">
-        <v>0.9583394443409617</v>
+        <v>0.9580394169548856</v>
       </c>
       <c r="F11">
-        <v>96.1188658656062</v>
+        <v>95.92510660301284</v>
       </c>
       <c r="G11">
-        <v>-15.8811341343938</v>
+        <v>-16.07489339698716</v>
       </c>
       <c r="H11">
-        <v>15.8811341343938</v>
+        <v>16.07489339698716</v>
       </c>
       <c r="I11">
-        <v>78.14600974739557</v>
+        <v>80.79540391245013</v>
       </c>
       <c r="J11">
-        <v>8.162777872429912</v>
+        <v>8.27348235881915</v>
       </c>
       <c r="K11">
-        <v>14.1795840485659</v>
+        <v>14.35258339016711</v>
       </c>
       <c r="L11">
-        <v>7.418942113761917</v>
+        <v>7.525509403825759</v>
       </c>
       <c r="M11">
-        <v>-1.345552748271392</v>
+        <v>-1.383095434257066</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2839,37 +2839,37 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>100.5258925828805</v>
+        <v>100.8960084955011</v>
       </c>
       <c r="D12">
-        <v>-2.067280144828088</v>
+        <v>-2.032515958153256</v>
       </c>
       <c r="E12">
-        <v>1.035656670903902</v>
+        <v>1.035382622279899</v>
       </c>
       <c r="F12">
-        <v>104.4682002947711</v>
+        <v>105.0109570862599</v>
       </c>
       <c r="G12">
-        <v>2.468200294771052</v>
+        <v>3.010957086259864</v>
       </c>
       <c r="H12">
-        <v>2.468200294771052</v>
+        <v>3.010957086259864</v>
       </c>
       <c r="I12">
-        <v>70.9406100421668</v>
+        <v>73.62244977873496</v>
       </c>
       <c r="J12">
-        <v>7.593320114664026</v>
+        <v>7.747229831563222</v>
       </c>
       <c r="K12">
-        <v>2.419804210559855</v>
+        <v>2.951918712019475</v>
       </c>
       <c r="L12">
-        <v>6.919028323441711</v>
+        <v>7.06815033464513</v>
       </c>
       <c r="M12">
-        <v>-1.121413002009686</v>
+        <v>-1.088396597616864</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2880,37 +2880,37 @@
         <v>92</v>
       </c>
       <c r="C13">
-        <v>98.34093538016938</v>
+        <v>98.61435400712293</v>
       </c>
       <c r="D13">
-        <v>-2.079047850616389</v>
+        <v>-2.057429811175746</v>
       </c>
       <c r="E13">
-        <v>0.9551091219063146</v>
+        <v>0.954937464578528</v>
       </c>
       <c r="F13">
-        <v>94.25301103906341</v>
+        <v>94.65023343908592</v>
       </c>
       <c r="G13">
-        <v>2.253011039063409</v>
+        <v>2.650233439085923</v>
       </c>
       <c r="H13">
-        <v>2.253011039063409</v>
+        <v>2.650233439085923</v>
       </c>
       <c r="I13">
-        <v>64.95292356034632</v>
+        <v>67.56802136990899</v>
       </c>
       <c r="J13">
-        <v>7.107837471427606</v>
+        <v>7.283866523156195</v>
       </c>
       <c r="K13">
-        <v>2.448925042460227</v>
+        <v>2.880688520745569</v>
       </c>
       <c r="L13">
-        <v>6.51265529789794</v>
+        <v>6.687471987926989</v>
       </c>
       <c r="M13">
-        <v>-0.8810326475690706</v>
+        <v>-0.7937851595937833</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2921,37 +2921,37 @@
         <v>91</v>
       </c>
       <c r="C14">
-        <v>95.93623067589766</v>
+        <v>95.94507175124384</v>
       </c>
       <c r="D14">
-        <v>-2.111613535981922</v>
+        <v>-2.11861505564608</v>
       </c>
       <c r="E14">
-        <v>1.007402199069024</v>
+        <v>1.00729369026983</v>
       </c>
       <c r="F14">
-        <v>97.603941231921</v>
+        <v>97.89238753054219</v>
       </c>
       <c r="G14">
-        <v>6.603941231920999</v>
+        <v>6.892387530542194</v>
       </c>
       <c r="H14">
-        <v>6.603941231920999</v>
+        <v>6.892387530542194</v>
       </c>
       <c r="I14">
-        <v>63.17451657987297</v>
+        <v>65.89610341168104</v>
       </c>
       <c r="J14">
-        <v>7.065846118135389</v>
+        <v>7.251243273771695</v>
       </c>
       <c r="K14">
-        <v>7.257078276836262</v>
+        <v>7.574052231365049</v>
       </c>
       <c r="L14">
-        <v>6.574690546142801</v>
+        <v>6.761353674880159</v>
       </c>
       <c r="M14">
-        <v>0.04836000675155649</v>
+        <v>0.1531547540289855</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2959,10 +2959,10 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9583394443409617</v>
+        <v>0.9580394169548856</v>
       </c>
       <c r="F15">
-        <v>94.24399736820196</v>
+        <v>94.47643821636673</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2970,10 +2970,10 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>1.035656670903902</v>
+        <v>1.035382622279899</v>
       </c>
       <c r="F16">
-        <v>99.69426597378271</v>
+        <v>99.97336137328116</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2981,10 +2981,10 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>0.9551091219063146</v>
+        <v>0.954937464578528</v>
       </c>
       <c r="F17">
-        <v>89.95488930439234</v>
+        <v>90.24110757174648</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2992,10 +2992,10 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>1.007402199069024</v>
+        <v>1.00729369026983</v>
       </c>
       <c r="F18">
-        <v>92.78556243044541</v>
+        <v>93.11630836049916</v>
       </c>
     </row>
   </sheetData>

--- a/hw4/pizza/generated_spreadsheet.xlsx
+++ b/hw4/pizza/generated_spreadsheet.xlsx
@@ -1427,7 +1427,7 @@
         <v>108</v>
       </c>
       <c r="C3">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="D3">
         <v>106</v>
@@ -1462,28 +1462,28 @@
         <v>116</v>
       </c>
       <c r="C4">
-        <v>107.18</v>
+        <v>106.595</v>
       </c>
       <c r="D4">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="E4">
-        <v>-9.799999999999997</v>
+        <v>-9.900000000000006</v>
       </c>
       <c r="F4">
-        <v>9.799999999999997</v>
+        <v>9.900000000000006</v>
       </c>
       <c r="G4">
-        <v>50.01999999999997</v>
+        <v>51.00500000000006</v>
       </c>
       <c r="H4">
-        <v>5.899999999999999</v>
+        <v>5.950000000000003</v>
       </c>
       <c r="I4">
-        <v>8.448275862068963</v>
+        <v>8.534482758620694</v>
       </c>
       <c r="J4">
-        <v>5.150063856960407</v>
+        <v>5.193167305236273</v>
       </c>
       <c r="K4">
         <v>-2</v>
@@ -1497,28 +1497,28 @@
         <v>118</v>
       </c>
       <c r="C5">
-        <v>108.262</v>
+        <v>107.16525</v>
       </c>
       <c r="D5">
-        <v>107.18</v>
+        <v>106.595</v>
       </c>
       <c r="E5">
-        <v>-10.81999999999999</v>
+        <v>-11.40500000000002</v>
       </c>
       <c r="F5">
-        <v>10.81999999999999</v>
+        <v>11.40500000000002</v>
       </c>
       <c r="G5">
-        <v>72.37079999999993</v>
+        <v>77.36134166666682</v>
       </c>
       <c r="H5">
-        <v>7.539999999999996</v>
+        <v>7.768333333333341</v>
       </c>
       <c r="I5">
-        <v>9.169491525423723</v>
+        <v>9.665254237288149</v>
       </c>
       <c r="J5">
-        <v>6.489873079781513</v>
+        <v>6.683862949253565</v>
       </c>
       <c r="K5">
         <v>-3</v>
@@ -1532,28 +1532,28 @@
         <v>124</v>
       </c>
       <c r="C6">
-        <v>109.8358</v>
+        <v>108.0069875</v>
       </c>
       <c r="D6">
-        <v>108.262</v>
+        <v>107.16525</v>
       </c>
       <c r="E6">
-        <v>-15.738</v>
+        <v>-16.83475000000001</v>
       </c>
       <c r="F6">
-        <v>15.738</v>
+        <v>16.83475000000001</v>
       </c>
       <c r="G6">
-        <v>116.199261</v>
+        <v>128.8732081406252</v>
       </c>
       <c r="H6">
-        <v>9.589499999999997</v>
+        <v>10.03493750000001</v>
       </c>
       <c r="I6">
-        <v>12.69193548387097</v>
+        <v>13.57641129032259</v>
       </c>
       <c r="J6">
-        <v>8.040388680803876</v>
+        <v>8.407000034520822</v>
       </c>
       <c r="K6">
         <v>-4</v>
@@ -1567,31 +1567,31 @@
         <v>96</v>
       </c>
       <c r="C7">
-        <v>108.45222</v>
+        <v>107.406638125</v>
       </c>
       <c r="D7">
-        <v>109.8358</v>
+        <v>108.0069875</v>
       </c>
       <c r="E7">
-        <v>13.83580000000001</v>
+        <v>12.00698749999998</v>
       </c>
       <c r="F7">
-        <v>13.83580000000001</v>
+        <v>12.00698749999998</v>
       </c>
       <c r="G7">
-        <v>131.245281128</v>
+        <v>131.9321162775313</v>
       </c>
       <c r="H7">
-        <v>10.43876</v>
+        <v>10.4293475</v>
       </c>
       <c r="I7">
-        <v>14.41229166666667</v>
+        <v>12.50727864583331</v>
       </c>
       <c r="J7">
-        <v>9.314769277976435</v>
+        <v>9.227055756783319</v>
       </c>
       <c r="K7">
-        <v>-2.349148749468327</v>
+        <v>-2.697461418367741</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1602,31 +1602,31 @@
         <v>119</v>
       </c>
       <c r="C8">
-        <v>109.506998</v>
+        <v>107.98630621875</v>
       </c>
       <c r="D8">
-        <v>108.45222</v>
+        <v>107.406638125</v>
       </c>
       <c r="E8">
-        <v>-10.54777999999999</v>
+        <v>-11.59336187500003</v>
       </c>
       <c r="F8">
-        <v>10.54777999999999</v>
+        <v>11.59336187500003</v>
       </c>
       <c r="G8">
-        <v>127.9136780947333</v>
+        <v>132.3444368253935</v>
       </c>
       <c r="H8">
-        <v>10.45693</v>
+        <v>10.62334989583334</v>
       </c>
       <c r="I8">
-        <v>8.863680672268897</v>
+        <v>9.742320903361367</v>
       </c>
       <c r="J8">
-        <v>9.239587843691845</v>
+        <v>9.312933281212993</v>
       </c>
       <c r="K8">
-        <v>-3.353754878343833</v>
+        <v>-3.739510113526558</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1637,31 +1637,31 @@
         <v>96</v>
       </c>
       <c r="C9">
-        <v>108.1562982</v>
+        <v>107.3869909078125</v>
       </c>
       <c r="D9">
-        <v>109.506998</v>
+        <v>107.98630621875</v>
       </c>
       <c r="E9">
-        <v>13.50699800000002</v>
+        <v>11.98630621874997</v>
       </c>
       <c r="F9">
-        <v>13.50699800000002</v>
+        <v>11.98630621874997</v>
       </c>
       <c r="G9">
-        <v>135.7030090772006</v>
+        <v>133.9625939602865</v>
       </c>
       <c r="H9">
-        <v>10.892654</v>
+        <v>10.81805794196429</v>
       </c>
       <c r="I9">
-        <v>14.06978958333336</v>
+        <v>12.48573564453122</v>
       </c>
       <c r="J9">
-        <v>9.929616663640633</v>
+        <v>9.766190761687026</v>
       </c>
       <c r="K9">
-        <v>-1.979589363620652</v>
+        <v>-2.564214233743812</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1672,31 +1672,31 @@
         <v>102</v>
       </c>
       <c r="C10">
-        <v>107.54066838</v>
+        <v>107.1176413624218</v>
       </c>
       <c r="D10">
-        <v>108.1562982</v>
+        <v>107.3869909078125</v>
       </c>
       <c r="E10">
-        <v>6.156298200000037</v>
+        <v>5.386990907812461</v>
       </c>
       <c r="F10">
-        <v>6.156298200000037</v>
+        <v>5.386990907812461</v>
       </c>
       <c r="G10">
-        <v>123.477633883466</v>
+        <v>120.8447285953574</v>
       </c>
       <c r="H10">
-        <v>10.30060952500001</v>
+        <v>10.13917456269531</v>
       </c>
       <c r="I10">
-        <v>6.035586470588273</v>
+        <v>5.281363635110256</v>
       </c>
       <c r="J10">
-        <v>9.442862889509088</v>
+        <v>9.205587370864929</v>
       </c>
       <c r="K10">
-        <v>-1.495706032017547</v>
+        <v>-2.204600296623709</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1707,31 +1707,31 @@
         <v>112</v>
       </c>
       <c r="C11">
-        <v>107.986601542</v>
+        <v>107.3617592943007</v>
       </c>
       <c r="D11">
-        <v>107.54066838</v>
+        <v>107.1176413624218</v>
       </c>
       <c r="E11">
-        <v>-4.459331619999958</v>
+        <v>-4.882358637578179</v>
       </c>
       <c r="F11">
-        <v>4.459331619999958</v>
+        <v>4.882358637578179</v>
       </c>
       <c r="G11">
-        <v>111.9674121738733</v>
+        <v>110.0661394031993</v>
       </c>
       <c r="H11">
-        <v>9.651578646666668</v>
+        <v>9.555083904348962</v>
       </c>
       <c r="I11">
-        <v>3.981546089285676</v>
+        <v>4.359248783551945</v>
       </c>
       <c r="J11">
-        <v>8.836049911706487</v>
+        <v>8.667105305607931</v>
       </c>
       <c r="K11">
-        <v>-2.058317726796012</v>
+        <v>-2.850334561020425</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1742,31 +1742,31 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>107.3879413878</v>
+        <v>107.0936713295857</v>
       </c>
       <c r="D12">
-        <v>107.986601542</v>
+        <v>107.3617592943007</v>
       </c>
       <c r="E12">
-        <v>5.986601542000045</v>
+        <v>5.361759294300725</v>
       </c>
       <c r="F12">
-        <v>5.986601542000045</v>
+        <v>5.361759294300725</v>
       </c>
       <c r="G12">
-        <v>104.3546107587537</v>
+        <v>101.9343717358814</v>
       </c>
       <c r="H12">
-        <v>9.285080936200005</v>
+        <v>9.135751443344137</v>
       </c>
       <c r="I12">
-        <v>5.86921719803926</v>
+        <v>5.256626759118358</v>
       </c>
       <c r="J12">
-        <v>8.539366640339765</v>
+        <v>8.326057450958974</v>
       </c>
       <c r="K12">
-        <v>-1.494808066119032</v>
+        <v>-2.394266823847426</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1777,31 +1777,31 @@
         <v>92</v>
       </c>
       <c r="C13">
-        <v>105.84914724902</v>
+        <v>106.3389877631064</v>
       </c>
       <c r="D13">
-        <v>107.3879413878</v>
+        <v>107.0936713295857</v>
       </c>
       <c r="E13">
-        <v>15.38794138780004</v>
+        <v>15.09367132958567</v>
       </c>
       <c r="F13">
-        <v>15.38794138780004</v>
+        <v>15.09367132958567</v>
       </c>
       <c r="G13">
-        <v>116.394077067446</v>
+        <v>113.3784210513064</v>
       </c>
       <c r="H13">
-        <v>9.839886431800009</v>
+        <v>9.67738052391155</v>
       </c>
       <c r="I13">
-        <v>16.72602324760874</v>
+        <v>16.40616448868008</v>
       </c>
       <c r="J13">
-        <v>9.283608150091489</v>
+        <v>9.060612636206347</v>
       </c>
       <c r="K13">
-        <v>0.1533074106348463</v>
+        <v>-0.7005775215077605</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1812,51 +1812,51 @@
         <v>91</v>
       </c>
       <c r="C14">
-        <v>104.364232524118</v>
+        <v>105.572038374951</v>
       </c>
       <c r="D14">
-        <v>105.84914724902</v>
+        <v>106.3389877631064</v>
       </c>
       <c r="E14">
-        <v>14.84914724902004</v>
+        <v>15.33898776310637</v>
       </c>
       <c r="F14">
-        <v>14.84914724902004</v>
+        <v>15.33898776310637</v>
       </c>
       <c r="G14">
-        <v>125.0693351470821</v>
+        <v>123.5372647634248</v>
       </c>
       <c r="H14">
-        <v>10.25732483323501</v>
+        <v>10.14918112717779</v>
       </c>
       <c r="I14">
-        <v>16.31774422969235</v>
+        <v>16.85603050890811</v>
       </c>
       <c r="J14">
-        <v>9.869786156724894</v>
+        <v>9.710230792264827</v>
       </c>
       <c r="K14">
-        <v>1.594731084836014</v>
+        <v>0.8433421764497605</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="D15">
-        <v>104.364232524118</v>
+        <v>105.572038374951</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16">
-        <v>104.364232524118</v>
+        <v>105.572038374951</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17">
-        <v>104.364232524118</v>
+        <v>105.572038374951</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18">
-        <v>104.364232524118</v>
+        <v>105.572038374951</v>
       </c>
     </row>
   </sheetData>
@@ -1929,10 +1929,10 @@
         <v>108</v>
       </c>
       <c r="C3">
-        <v>117</v>
+        <v>117.5</v>
       </c>
       <c r="D3">
-        <v>-2.1</v>
+        <v>-2.05</v>
       </c>
       <c r="E3">
         <v>118</v>
@@ -1967,34 +1967,34 @@
         <v>116</v>
       </c>
       <c r="C4">
-        <v>115.01</v>
+        <v>115.4775</v>
       </c>
       <c r="D4">
-        <v>-2.088999999999998</v>
+        <v>-2.047250000000001</v>
       </c>
       <c r="E4">
-        <v>114.9</v>
+        <v>115.45</v>
       </c>
       <c r="F4">
-        <v>-1.099999999999994</v>
+        <v>-0.5499999999999972</v>
       </c>
       <c r="G4">
-        <v>1.099999999999994</v>
+        <v>0.5499999999999972</v>
       </c>
       <c r="H4">
-        <v>50.605</v>
+        <v>50.15125</v>
       </c>
       <c r="I4">
-        <v>5.549999999999997</v>
+        <v>5.274999999999999</v>
       </c>
       <c r="J4">
-        <v>0.9482758620689606</v>
+        <v>0.4741379310344803</v>
       </c>
       <c r="K4">
-        <v>5.10376756066411</v>
+        <v>4.86669859514687</v>
       </c>
       <c r="L4">
-        <v>1.603603603603605</v>
+        <v>1.791469194312797</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2005,34 +2005,34 @@
         <v>118</v>
       </c>
       <c r="C5">
-        <v>113.4289</v>
+        <v>113.6587375</v>
       </c>
       <c r="D5">
-        <v>-2.038209999999999</v>
+        <v>-2.024401250000001</v>
       </c>
       <c r="E5">
-        <v>112.921</v>
+        <v>113.43025</v>
       </c>
       <c r="F5">
-        <v>-5.078999999999979</v>
+        <v>-4.569750000000013</v>
       </c>
       <c r="G5">
-        <v>5.078999999999979</v>
+        <v>4.569750000000013</v>
       </c>
       <c r="H5">
-        <v>42.3354136666666</v>
+        <v>40.39503835416671</v>
       </c>
       <c r="I5">
-        <v>5.392999999999991</v>
+        <v>5.03991666666667</v>
       </c>
       <c r="J5">
-        <v>4.304237288135575</v>
+        <v>3.872669491525435</v>
       </c>
       <c r="K5">
-        <v>4.837257469821265</v>
+        <v>4.535355560606392</v>
       </c>
       <c r="L5">
-        <v>0.7085110328203287</v>
+        <v>0.968319582003668</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2043,34 +2043,34 @@
         <v>124</v>
       </c>
       <c r="C6">
-        <v>112.651621</v>
+        <v>112.2526194375</v>
       </c>
       <c r="D6">
-        <v>-1.912116899999998</v>
+        <v>-1.962572931250001</v>
       </c>
       <c r="E6">
-        <v>111.39069</v>
+        <v>111.63433625</v>
       </c>
       <c r="F6">
-        <v>-12.60930999999998</v>
+        <v>-12.36566375000001</v>
       </c>
       <c r="G6">
-        <v>12.60930999999998</v>
+        <v>12.36566375000001</v>
       </c>
       <c r="H6">
-        <v>71.50023491902482</v>
+        <v>68.52368876014111</v>
       </c>
       <c r="I6">
-        <v>7.197077499999988</v>
+        <v>6.871353437500005</v>
       </c>
       <c r="J6">
-        <v>10.16879838709676</v>
+        <v>9.97230947580646</v>
       </c>
       <c r="K6">
-        <v>6.170142699140138</v>
+        <v>5.894594039406408</v>
       </c>
       <c r="L6">
-        <v>-1.221094256661814</v>
+        <v>-1.089365263784689</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2081,34 +2081,34 @@
         <v>96</v>
       </c>
       <c r="C7">
-        <v>109.26555369</v>
+        <v>109.5755441809375</v>
       </c>
       <c r="D7">
-        <v>-2.059511940999999</v>
+        <v>-2.034023163781251</v>
       </c>
       <c r="E7">
-        <v>110.7395041</v>
+        <v>110.29004650625</v>
       </c>
       <c r="F7">
-        <v>14.73950410000002</v>
+        <v>14.29004650624999</v>
       </c>
       <c r="G7">
-        <v>14.73950410000002</v>
+        <v>14.29004650624999</v>
       </c>
       <c r="H7">
-        <v>100.6507841580033</v>
+        <v>95.66003683827041</v>
       </c>
       <c r="I7">
-        <v>8.705562819999994</v>
+        <v>8.355092051250002</v>
       </c>
       <c r="J7">
-        <v>15.35365010416669</v>
+        <v>14.88546511067708</v>
       </c>
       <c r="K7">
-        <v>8.006844180145446</v>
+        <v>7.692768253660542</v>
       </c>
       <c r="L7">
-        <v>0.6836081966266335</v>
+        <v>0.8144294179538014</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2119,34 +2119,34 @@
         <v>119</v>
       </c>
       <c r="C8">
-        <v>108.3854375741</v>
+        <v>108.1144449662984</v>
       </c>
       <c r="D8">
-        <v>-1.941572358489998</v>
+        <v>-1.976730768867032</v>
       </c>
       <c r="E8">
-        <v>107.206041749</v>
+        <v>107.5415210171562</v>
       </c>
       <c r="F8">
-        <v>-11.79395825099998</v>
+        <v>-11.45847898284377</v>
       </c>
       <c r="G8">
-        <v>11.79395825099998</v>
+        <v>11.45847898284377</v>
       </c>
       <c r="H8">
-        <v>107.0585620027245</v>
+        <v>101.5994874652707</v>
       </c>
       <c r="I8">
-        <v>9.220295391833325</v>
+        <v>8.872323206515631</v>
       </c>
       <c r="J8">
-        <v>9.910889286554603</v>
+        <v>9.628973935162835</v>
       </c>
       <c r="K8">
-        <v>8.32418503121364</v>
+        <v>8.01546920057759</v>
       </c>
       <c r="L8">
-        <v>-0.6336851372652348</v>
+        <v>-0.5245352449712519</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2157,34 +2157,34 @@
         <v>96</v>
       </c>
       <c r="C9">
-        <v>105.399478694049</v>
+        <v>105.6308284875598</v>
       </c>
       <c r="D9">
-        <v>-2.046011010646097</v>
+        <v>-2.02741933985419</v>
       </c>
       <c r="E9">
-        <v>106.44386521561</v>
+        <v>106.1377141974314</v>
       </c>
       <c r="F9">
-        <v>10.44386521561003</v>
+        <v>10.13771419743139</v>
       </c>
       <c r="G9">
-        <v>10.44386521561003</v>
+        <v>10.13771419743139</v>
       </c>
       <c r="H9">
-        <v>107.3465275225966</v>
+        <v>101.7671677057752</v>
       </c>
       <c r="I9">
-        <v>9.395091080944283</v>
+        <v>9.053093348075025</v>
       </c>
       <c r="J9">
-        <v>10.87902626626045</v>
+        <v>10.5601189556577</v>
       </c>
       <c r="K9">
-        <v>8.689162350506042</v>
+        <v>8.378990594160463</v>
       </c>
       <c r="L9">
-        <v>0.4897345885174401</v>
+        <v>0.6057452143695876</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2195,34 +2195,34 @@
         <v>102</v>
       </c>
       <c r="C10">
-        <v>103.2181209150627</v>
+        <v>103.5232386903203</v>
       </c>
       <c r="D10">
-        <v>-2.059545687480126</v>
+        <v>-2.035436385592719</v>
       </c>
       <c r="E10">
-        <v>103.3534676834029</v>
+        <v>103.6034091477056</v>
       </c>
       <c r="F10">
-        <v>1.35346768340294</v>
+        <v>1.603409147705619</v>
       </c>
       <c r="G10">
-        <v>1.35346768340294</v>
+        <v>1.603409147705619</v>
       </c>
       <c r="H10">
-        <v>94.15719592852405</v>
+        <v>89.36763685442158</v>
       </c>
       <c r="I10">
-        <v>8.389888156251615</v>
+        <v>8.12188282302885</v>
       </c>
       <c r="J10">
-        <v>1.326929101375431</v>
+        <v>1.571969752652568</v>
       </c>
       <c r="K10">
-        <v>7.768883194364715</v>
+        <v>7.528112988971976</v>
       </c>
       <c r="L10">
-        <v>0.7097316003641945</v>
+        <v>0.8726150417299658</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2233,34 +2233,34 @@
         <v>112</v>
       </c>
       <c r="C11">
-        <v>102.2427177048243</v>
+        <v>102.0134121894912</v>
       </c>
       <c r="D11">
-        <v>-1.95113143975595</v>
+        <v>-1.982875397116358</v>
       </c>
       <c r="E11">
-        <v>101.1585752275825</v>
+        <v>101.4878023047276</v>
       </c>
       <c r="F11">
-        <v>-10.84142477241747</v>
+        <v>-10.51219769527239</v>
       </c>
       <c r="G11">
-        <v>10.84142477241747</v>
+        <v>10.51219769527239</v>
       </c>
       <c r="H11">
-        <v>96.7548953915755</v>
+        <v>91.71637724665142</v>
       </c>
       <c r="I11">
-        <v>8.662281113603377</v>
+        <v>8.387473364389244</v>
       </c>
       <c r="J11">
-        <v>9.679843546801312</v>
+        <v>9.385890799350349</v>
       </c>
       <c r="K11">
-        <v>7.981212122413226</v>
+        <v>7.734532745680685</v>
       </c>
       <c r="L11">
-        <v>-0.5641534787793964</v>
+        <v>-0.4083375800953823</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2271,34 +2271,34 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>100.4624276385615</v>
+        <v>100.1290099527561</v>
       </c>
       <c r="D12">
-        <v>-1.934047302406633</v>
+        <v>-1.973028081078234</v>
       </c>
       <c r="E12">
-        <v>100.2915862650683</v>
+        <v>100.0305367923749</v>
       </c>
       <c r="F12">
-        <v>-1.708413734931668</v>
+        <v>-1.969463207625139</v>
       </c>
       <c r="G12">
-        <v>1.708413734931668</v>
+        <v>1.969463207625139</v>
       </c>
       <c r="H12">
-        <v>87.37127360138827</v>
+        <v>82.93261805460519</v>
       </c>
       <c r="I12">
-        <v>7.966894375736206</v>
+        <v>7.745672348712833</v>
       </c>
       <c r="J12">
-        <v>1.674915426403596</v>
+        <v>1.930846281985431</v>
       </c>
       <c r="K12">
-        <v>7.350582452812263</v>
+        <v>7.154164099311158</v>
       </c>
       <c r="L12">
-        <v>-0.8278344670192292</v>
+        <v>-0.6964384163823752</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2309,34 +2309,34 @@
         <v>92</v>
       </c>
       <c r="C13">
-        <v>97.87554230253939</v>
+        <v>97.84818277809396</v>
       </c>
       <c r="D13">
-        <v>-1.999331105768182</v>
+        <v>-2.003807990436625</v>
       </c>
       <c r="E13">
-        <v>98.52838033615487</v>
+        <v>98.15598187167787</v>
       </c>
       <c r="F13">
-        <v>6.528380336154868</v>
+        <v>6.155981871677866</v>
       </c>
       <c r="G13">
-        <v>6.528380336154868</v>
+        <v>6.155981871677866</v>
       </c>
       <c r="H13">
-        <v>83.3029532570342</v>
+        <v>78.83839030458894</v>
       </c>
       <c r="I13">
-        <v>7.836120372137902</v>
+        <v>7.601155032618745</v>
       </c>
       <c r="J13">
-        <v>7.09606558277703</v>
+        <v>6.691284643128117</v>
       </c>
       <c r="K13">
-        <v>7.327444555536332</v>
+        <v>7.112084148749063</v>
       </c>
       <c r="L13">
-        <v>-0.008536038244006674</v>
+        <v>0.1001950472073404</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2347,54 +2347,54 @@
         <v>91</v>
       </c>
       <c r="C14">
-        <v>95.38859007709408</v>
+        <v>95.60215604827445</v>
       </c>
       <c r="D14">
-        <v>-2.048093217735895</v>
+        <v>-2.028029864374913</v>
       </c>
       <c r="E14">
-        <v>95.87621119677121</v>
+        <v>95.84437478765733</v>
       </c>
       <c r="F14">
-        <v>4.876211196771209</v>
+        <v>4.84437478765733</v>
       </c>
       <c r="G14">
-        <v>4.876211196771209</v>
+        <v>4.84437478765733</v>
       </c>
       <c r="H14">
-        <v>78.3424934552411</v>
+        <v>74.2241883694807</v>
       </c>
       <c r="I14">
-        <v>7.589461274190678</v>
+        <v>7.371423345538627</v>
       </c>
       <c r="J14">
-        <v>5.358473842605724</v>
+        <v>5.323488777645418</v>
       </c>
       <c r="K14">
-        <v>7.163363662792115</v>
+        <v>6.963034534490427</v>
       </c>
       <c r="L14">
-        <v>0.633684210227801</v>
+        <v>0.7605007353666312</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="E15">
-        <v>93.82811797903531</v>
+        <v>93.81634492328241</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="E16">
-        <v>89.73193154356352</v>
+        <v>89.76028519453259</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17">
-        <v>83.58765189035583</v>
+        <v>83.67619560140784</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18">
-        <v>75.39527901941224</v>
+        <v>75.56407614390818</v>
       </c>
     </row>
   </sheetData>
@@ -2470,13 +2470,13 @@
         <v>108</v>
       </c>
       <c r="C3">
-        <v>118.5388250109192</v>
+        <v>118.7874424663837</v>
       </c>
       <c r="D3">
-        <v>-2.16754607033665</v>
+        <v>-2.127145733823673</v>
       </c>
       <c r="E3">
-        <v>0.9521796238547565</v>
+        <v>0.9543668200587129</v>
       </c>
       <c r="F3">
         <v>113.9465858499168</v>
@@ -2511,34 +2511,34 @@
         <v>116</v>
       </c>
       <c r="C4">
-        <v>115.9783943403233</v>
+        <v>116.4275766205949</v>
       </c>
       <c r="D4">
-        <v>-2.206834530362574</v>
+        <v>-2.138781739421929</v>
       </c>
       <c r="E4">
-        <v>1.032112430639977</v>
+        <v>1.033693167148837</v>
       </c>
       <c r="F4">
-        <v>120.521053094399</v>
+        <v>120.8203771971265</v>
       </c>
       <c r="G4">
-        <v>4.521053094399022</v>
+        <v>4.820377197126518</v>
       </c>
       <c r="H4">
-        <v>4.521053094399022</v>
+        <v>4.820377197126518</v>
       </c>
       <c r="I4">
-        <v>27.90090217640276</v>
+        <v>29.29895979650393</v>
       </c>
       <c r="J4">
-        <v>5.233819472157904</v>
+        <v>5.383481523521652</v>
       </c>
       <c r="K4">
-        <v>3.897459564137088</v>
+        <v>4.155497583729757</v>
       </c>
       <c r="L4">
-        <v>4.701778786659649</v>
+        <v>4.830797796455983</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -2552,37 +2552,37 @@
         <v>118</v>
       </c>
       <c r="C5">
-        <v>114.6402727573129</v>
+        <v>114.7455514316969</v>
       </c>
       <c r="D5">
-        <v>-2.119963235627355</v>
+        <v>-2.115943911895732</v>
       </c>
       <c r="E5">
-        <v>0.9633797210446682</v>
+        <v>0.9596698922302574</v>
       </c>
       <c r="F5">
-        <v>108.7718119528996</v>
+        <v>109.2663168713108</v>
       </c>
       <c r="G5">
-        <v>-9.22818804710036</v>
+        <v>-8.733683128689151</v>
       </c>
       <c r="H5">
-        <v>9.22818804710036</v>
+        <v>8.733683128689151</v>
       </c>
       <c r="I5">
-        <v>46.98708632848383</v>
+        <v>44.95838019511913</v>
       </c>
       <c r="J5">
-        <v>6.56527566380539</v>
+        <v>6.500215391910818</v>
       </c>
       <c r="K5">
-        <v>7.820498345000305</v>
+        <v>7.401426380245043</v>
       </c>
       <c r="L5">
-        <v>5.741351972773201</v>
+        <v>5.687673991052336</v>
       </c>
       <c r="M5">
-        <v>0.1887888583336397</v>
+        <v>0.312801929745969</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2593,37 +2593,37 @@
         <v>124</v>
       </c>
       <c r="C6">
-        <v>113.4552765956967</v>
+        <v>113.1435687721238</v>
       </c>
       <c r="D6">
-        <v>-2.026466528226242</v>
+        <v>-2.090245849279601</v>
       </c>
       <c r="E6">
-        <v>1.017284241651094</v>
+        <v>1.013231602336677</v>
       </c>
       <c r="F6">
-        <v>113.5192491000836</v>
+        <v>113.6295174305474</v>
       </c>
       <c r="G6">
-        <v>-10.48075089991642</v>
+        <v>-10.37048256945265</v>
       </c>
       <c r="H6">
-        <v>10.48075089991642</v>
+        <v>10.37048256945265</v>
       </c>
       <c r="I6">
-        <v>62.70184960288756</v>
+        <v>60.60551232716964</v>
       </c>
       <c r="J6">
-        <v>7.544144472833146</v>
+        <v>7.467782186296276</v>
       </c>
       <c r="K6">
-        <v>8.452218467674529</v>
+        <v>8.363292394719878</v>
       </c>
       <c r="L6">
-        <v>6.419068596498533</v>
+        <v>6.356578591969222</v>
       </c>
       <c r="M6">
-        <v>-1.224963285894029</v>
+        <v>-1.116422847254121</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2634,37 +2634,37 @@
         <v>96</v>
       </c>
       <c r="C7">
-        <v>110.474135341901</v>
+        <v>110.5301694327525</v>
       </c>
       <c r="D7">
-        <v>-2.121934000783193</v>
+        <v>-2.116403523784185</v>
       </c>
       <c r="E7">
-        <v>0.9438598297173457</v>
+        <v>0.9500755363437003</v>
       </c>
       <c r="F7">
-        <v>106.1002424566271</v>
+        <v>105.9856066548282</v>
       </c>
       <c r="G7">
-        <v>10.10024245662714</v>
+        <v>9.985606654828175</v>
       </c>
       <c r="H7">
-        <v>10.10024245662714</v>
+        <v>9.985606654828175</v>
       </c>
       <c r="I7">
-        <v>70.56445921884075</v>
+        <v>68.42687791472545</v>
       </c>
       <c r="J7">
-        <v>8.055364069591946</v>
+        <v>7.971347080002656</v>
       </c>
       <c r="K7">
-        <v>10.52108589231994</v>
+        <v>10.40167359877935</v>
       </c>
       <c r="L7">
-        <v>7.239472055662816</v>
+        <v>7.165597593331247</v>
       </c>
       <c r="M7">
-        <v>0.1066298737717619</v>
+        <v>0.2067911467391697</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2675,37 +2675,37 @@
         <v>119</v>
       </c>
       <c r="C8">
-        <v>108.9772797052805</v>
+        <v>108.7491377182911</v>
       </c>
       <c r="D8">
-        <v>-2.059426164366925</v>
+        <v>-2.099634933318046</v>
       </c>
       <c r="E8">
-        <v>1.038098260875868</v>
+        <v>1.036721586291037</v>
       </c>
       <c r="F8">
-        <v>111.8316538913732</v>
+        <v>112.0665690449741</v>
       </c>
       <c r="G8">
-        <v>-7.168346108626807</v>
+        <v>-6.933430955025884</v>
       </c>
       <c r="H8">
-        <v>7.168346108626807</v>
+        <v>6.933430955025884</v>
       </c>
       <c r="I8">
-        <v>67.36791367121147</v>
+        <v>65.03447573028974</v>
       </c>
       <c r="J8">
-        <v>7.907527742764422</v>
+        <v>7.798361059173193</v>
       </c>
       <c r="K8">
-        <v>6.023820259350257</v>
+        <v>5.826412567248642</v>
       </c>
       <c r="L8">
-        <v>7.036863422944056</v>
+        <v>6.942400088984146</v>
       </c>
       <c r="M8">
-        <v>-0.7978983899833784</v>
+        <v>-0.6777099586943898</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2716,37 +2716,37 @@
         <v>96</v>
       </c>
       <c r="C9">
-        <v>106.2636729940974</v>
+        <v>106.3187475484348</v>
       </c>
       <c r="D9">
-        <v>-2.12484421904854</v>
+        <v>-2.11617269514496</v>
       </c>
       <c r="E9">
-        <v>0.9573830643635187</v>
+        <v>0.9568336563165889</v>
       </c>
       <c r="F9">
-        <v>103.00249191894</v>
+        <v>102.3483168440656</v>
       </c>
       <c r="G9">
-        <v>7.002491918939967</v>
+        <v>6.348316844065636</v>
       </c>
       <c r="H9">
-        <v>7.002491918939967</v>
+        <v>6.348316844065636</v>
       </c>
       <c r="I9">
-        <v>64.74891072886977</v>
+        <v>61.50114016205513</v>
       </c>
       <c r="J9">
-        <v>7.7782369107895</v>
+        <v>7.591211885586399</v>
       </c>
       <c r="K9">
-        <v>7.294262415562465</v>
+        <v>6.612830045901704</v>
       </c>
       <c r="L9">
-        <v>7.073634707603829</v>
+        <v>6.895318654258083</v>
       </c>
       <c r="M9">
-        <v>0.08910608820334663</v>
+        <v>0.1400685304000439</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2757,37 +2757,37 @@
         <v>102</v>
       </c>
       <c r="C10">
-        <v>103.7903607298328</v>
+        <v>104.0258461627344</v>
       </c>
       <c r="D10">
-        <v>-2.159691023570148</v>
+        <v>-2.125009129672729</v>
       </c>
       <c r="E10">
-        <v>1.01383083963906</v>
+        <v>1.011596299708821</v>
       </c>
       <c r="F10">
-        <v>105.9387894568587</v>
+        <v>105.5813418862063</v>
       </c>
       <c r="G10">
-        <v>3.938789456858686</v>
+        <v>3.581341886206346</v>
       </c>
       <c r="H10">
-        <v>3.938789456858686</v>
+        <v>3.581341886206346</v>
       </c>
       <c r="I10">
-        <v>58.59455468594369</v>
+        <v>55.41674885503524</v>
       </c>
       <c r="J10">
-        <v>7.298305979048148</v>
+        <v>7.089978135663893</v>
       </c>
       <c r="K10">
-        <v>3.861558291037928</v>
+        <v>3.511119496280731</v>
       </c>
       <c r="L10">
-        <v>6.67212515553309</v>
+        <v>6.472293759510914</v>
       </c>
       <c r="M10">
-        <v>0.6346510730565609</v>
+        <v>0.65509818085509</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2798,37 +2798,37 @@
         <v>112</v>
       </c>
       <c r="C11">
-        <v>103.1634612926596</v>
+        <v>102.7000633588118</v>
       </c>
       <c r="D11">
-        <v>-2.006411864930449</v>
+        <v>-2.085047813385222</v>
       </c>
       <c r="E11">
-        <v>0.9580394169548856</v>
+        <v>0.9570994766169596</v>
       </c>
       <c r="F11">
-        <v>95.92510660301284</v>
+        <v>96.81349239805807</v>
       </c>
       <c r="G11">
-        <v>-16.07489339698716</v>
+        <v>-15.18650760194193</v>
       </c>
       <c r="H11">
-        <v>16.07489339698716</v>
+        <v>15.18650760194193</v>
       </c>
       <c r="I11">
-        <v>80.79540391245013</v>
+        <v>74.8848893315691</v>
       </c>
       <c r="J11">
-        <v>8.27348235881915</v>
+        <v>7.989592520805896</v>
       </c>
       <c r="K11">
-        <v>14.35258339016711</v>
+        <v>13.55938178744815</v>
       </c>
       <c r="L11">
-        <v>7.525509403825759</v>
+        <v>7.259747984837274</v>
       </c>
       <c r="M11">
-        <v>-1.383095434257066</v>
+        <v>-1.319450997721572</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2839,37 +2839,37 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>100.8960084955011</v>
+        <v>100.5036183028354</v>
       </c>
       <c r="D12">
-        <v>-2.032515958153256</v>
+        <v>-2.090617675514782</v>
       </c>
       <c r="E12">
-        <v>1.035382622279899</v>
+        <v>1.035629948680392</v>
       </c>
       <c r="F12">
-        <v>105.0109570862599</v>
+        <v>104.309758520952</v>
       </c>
       <c r="G12">
-        <v>3.010957086259864</v>
+        <v>2.309758520951988</v>
       </c>
       <c r="H12">
-        <v>3.010957086259864</v>
+        <v>2.309758520951988</v>
       </c>
       <c r="I12">
-        <v>73.62244977873496</v>
+        <v>67.92989884092322</v>
       </c>
       <c r="J12">
-        <v>7.747229831563222</v>
+        <v>7.421609120820506</v>
       </c>
       <c r="K12">
-        <v>2.951918712019475</v>
+        <v>2.264469138188223</v>
       </c>
       <c r="L12">
-        <v>7.06815033464513</v>
+        <v>6.760220100172369</v>
       </c>
       <c r="M12">
-        <v>-1.088396597616864</v>
+        <v>-1.109209225115327</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2880,37 +2880,37 @@
         <v>92</v>
       </c>
       <c r="C13">
-        <v>98.61435400712293</v>
+        <v>98.29987379461389</v>
       </c>
       <c r="D13">
-        <v>-2.057429811175746</v>
+        <v>-2.096274017150118</v>
       </c>
       <c r="E13">
-        <v>0.954937464578528</v>
+        <v>0.9557875574870742</v>
       </c>
       <c r="F13">
-        <v>94.65023343908592</v>
+        <v>94.16487121932596</v>
       </c>
       <c r="G13">
-        <v>2.650233439085923</v>
+        <v>2.16487121932596</v>
       </c>
       <c r="H13">
-        <v>2.650233439085923</v>
+        <v>2.16487121932596</v>
       </c>
       <c r="I13">
-        <v>67.56802136990899</v>
+        <v>62.18051416413618</v>
       </c>
       <c r="J13">
-        <v>7.283866523156195</v>
+        <v>6.943723857048274</v>
       </c>
       <c r="K13">
-        <v>2.880688520745569</v>
+        <v>2.353120890571696</v>
       </c>
       <c r="L13">
-        <v>6.687471987926989</v>
+        <v>6.359574717481399</v>
       </c>
       <c r="M13">
-        <v>-0.7937851595937833</v>
+        <v>-0.8737741027142951</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2921,37 +2921,37 @@
         <v>91</v>
       </c>
       <c r="C14">
-        <v>95.94507175124384</v>
+        <v>95.89126146842835</v>
       </c>
       <c r="D14">
-        <v>-2.11861505564608</v>
+        <v>-2.111890932601889</v>
       </c>
       <c r="E14">
-        <v>1.00729369026983</v>
+        <v>1.008466063864625</v>
       </c>
       <c r="F14">
-        <v>97.89238753054219</v>
+        <v>97.31920555355073</v>
       </c>
       <c r="G14">
-        <v>6.892387530542194</v>
+        <v>6.319205553550731</v>
       </c>
       <c r="H14">
-        <v>6.892387530542194</v>
+        <v>6.319205553550731</v>
       </c>
       <c r="I14">
-        <v>65.89610341168104</v>
+        <v>60.32650121946037</v>
       </c>
       <c r="J14">
-        <v>7.251243273771695</v>
+        <v>6.891680665090146</v>
       </c>
       <c r="K14">
-        <v>7.574052231365049</v>
+        <v>6.944181926978825</v>
       </c>
       <c r="L14">
-        <v>6.761353674880159</v>
+        <v>6.408291984939518</v>
       </c>
       <c r="M14">
-        <v>0.1531547540289855</v>
+        <v>0.03655994569493519</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2959,10 +2959,10 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9580394169548856</v>
+        <v>0.9570994766169596</v>
       </c>
       <c r="F15">
-        <v>94.47643821636673</v>
+        <v>94.08275776033814</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2970,10 +2970,10 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>1.035382622279899</v>
+        <v>1.035629948680392</v>
       </c>
       <c r="F16">
-        <v>99.97336137328116</v>
+        <v>99.63132910040379</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2981,10 +2981,10 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>0.954937464578528</v>
+        <v>0.9557875574870742</v>
       </c>
       <c r="F17">
-        <v>90.24110757174648</v>
+        <v>89.94661103009061</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2992,10 +2992,10 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>1.00729369026983</v>
+        <v>1.008466063864625</v>
       </c>
       <c r="F18">
-        <v>93.11630836049916</v>
+        <v>92.79002318347247</v>
       </c>
     </row>
   </sheetData>
